--- a/data/correlation_table.xlsx
+++ b/data/correlation_table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/github/assortativity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{55CEE39B-E4AF-C445-8B84-20F9594223F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F218EF4-0CD7-C449-8D51-80B8A5FC8949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15660" yWindow="4940" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="15660" yWindow="4940" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="correlation_table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>rowname</t>
   </si>
@@ -95,12 +95,18 @@
   </si>
   <si>
     <t>p-values</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -591,12 +597,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -962,942 +974,1013 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="C1" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>0.35</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>0.38</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.23</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.4E-2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>0.38</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.27</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.16</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>0.41</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.12</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-9.2999999999999999E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.17</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>0.39</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.17</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.08</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.19</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>0.44</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.23</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.24</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.23</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>0.32</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>0.37</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>0.43</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.26</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.23</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>0.32</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.12</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-3.1E-2</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>0.32</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>0.44</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.12</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>0.43</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>0.45</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.13</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.23</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>0.32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>6.3E-2</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.26</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.22</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>0.44</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.11</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-0.24</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-3.5999999999999997E-2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.16</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>0.35</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-0.15</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-0.11</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.21</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.24</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-0.38</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.11</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-3.5999999999999997E-2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>0.48</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-0.39</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.18</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>0.3</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.15</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.16</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.11</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>0.52</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>-0.31</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.26</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.25</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.17</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>0.36</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>0.35</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>0.38</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.16</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.15</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>0.27</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>0.44</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>0.31</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.21</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.23</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.25</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.16</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>0.32</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>16</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>18</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>19</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>20</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>21</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>1.12E-2</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>5.9800000000000001E-3</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.88</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>5.0299999999999997E-3</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.253</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2.7100000000000002E-3</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.249</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.505</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.38300000000000001</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.67</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.82899999999999996</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.52300000000000002</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.23599999999999999</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>4.0600000000000002E-3</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.23100000000000001</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.57099999999999995</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>9.1799999999999998E-4</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.10100000000000001</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>6.4100000000000004E-2</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>9.35E-2</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.56100000000000005</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>6.6499999999999997E-3</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1.4599999999999999E-3</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>6.0199999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>8.2699999999999996E-2</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.16900000000000001</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3.61E-2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.43099999999999999</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.84099999999999997</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.51800000000000002</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.92300000000000004</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2.7299999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>0.45</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.71799999999999997</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>9.7900000000000001E-3</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3.2200000000000002E-3</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.76</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.21099999999999999</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.433</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.151</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>4.53E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>0.65500000000000003</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.88300000000000001</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.73299999999999998</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.13100000000000001</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.32900000000000001</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.69099999999999995</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.51400000000000001</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.32</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.436</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>0.55300000000000005</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.45300000000000001</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.82099999999999995</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.35899999999999999</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1.04E-2</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.73599999999999999</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.27800000000000002</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.38</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>0.44400000000000001</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.13500000000000001</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.54900000000000004</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.13100000000000001</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>8.3700000000000007E-3</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.437</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.80100000000000005</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3.2499999999999999E-4</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.33400000000000002</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>4.1099999999999999E-3</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>7.1099999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>0.20799999999999999</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.7</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.873</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.309</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.26700000000000002</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.45</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>9.3399999999999993E-5</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.30599999999999999</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.372</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>5.96E-2</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.43E-2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>4.8300000000000001E-3</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.26700000000000002</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.27500000000000002</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>2.0699999999999998E-5</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>1.01E-3</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.13</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>5.57E-2</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.996</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.10100000000000001</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.70599999999999996</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.27200000000000002</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2.07E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B17:L27">
+  <mergeCells count="4">
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="C15:M15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C17:M27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
